--- a/src/attributions/attributions_ig_traj_216.xlsx
+++ b/src/attributions/attributions_ig_traj_216.xlsx
@@ -1004,46 +1004,46 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1367755342541176</v>
+        <v>-0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00735739518129141</v>
+        <v>-0.07498804478836586</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.2123108505157703</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.02648686714505606</v>
+        <v>0.005516432524130028</v>
       </c>
       <c r="F2" t="n">
         <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1447608925115937</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.004666939716224117</v>
+        <v>0.0210650617049058</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.2062088150060369</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0175923563379955</v>
+        <v>-0.007387703804133994</v>
       </c>
       <c r="O2" t="n">
         <v>-0</v>
@@ -1055,106 +1055,106 @@
         <v>-0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.04892490680623737</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.005801648485555531</v>
+        <v>-0.09179633776493132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>-0</v>
+        <v>0.01626758625129003</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.03622483890805638</v>
+        <v>-0.03827681932504355</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA2" t="n">
         <v>-0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.02906621485549619</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.03366999518274053</v>
+        <v>-0.05304819134633224</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0</v>
+        <v>-0.01596718197831162</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.02574613973470245</v>
+        <v>0.001357506954384982</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.03112343954080615</v>
+        <v>-0</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.02640401302856191</v>
+        <v>-0.03337734227611048</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>0.02710235950979624</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.03479683958265728</v>
+        <v>0.06807114299100285</v>
       </c>
       <c r="AP2" t="n">
         <v>-0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS2" t="n">
         <v>-0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.04860500125446495</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.01311158556637226</v>
+        <v>-0.1493238582359526</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>0.07989574898010814</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.07457796665397511</v>
+        <v>0.004724416540976223</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ2" t="n">
         <v>-0</v>
@@ -1166,19 +1166,19 @@
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.06732656262280234</v>
+        <v>-0</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.007026465684806309</v>
+        <v>-0.01731206187656933</v>
       </c>
       <c r="BE2" t="n">
         <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0</v>
+        <v>0.08423891762249715</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.02351003570765214</v>
+        <v>0.03181235655624312</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
@@ -1187,25 +1187,25 @@
         <v>0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK2" t="n">
         <v>-0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.02989329812026577</v>
+        <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.006827527122476014</v>
+        <v>0.03624722305829137</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0</v>
+        <v>-0.03913293478256753</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.03070208939577875</v>
+        <v>-0.08637971709137597</v>
       </c>
       <c r="BQ2" t="n">
         <v>0</v>
@@ -1220,52 +1220,52 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.0406156845451628</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.0202515651654646</v>
+        <v>-0.04500391369559421</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>0.01500758071599884</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.02574152753322551</v>
+        <v>-0.02086773070508119</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA2" t="n">
         <v>-0</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC2" t="n">
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.01557663189872756</v>
+        <v>-0</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.00142449822436114</v>
+        <v>0.03220467152992416</v>
       </c>
       <c r="CF2" t="n">
         <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0</v>
+        <v>-0.03364726260395302</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.02205043183556894</v>
+        <v>0.01645725400885414</v>
       </c>
       <c r="CI2" t="n">
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK2" t="n">
         <v>0</v>
@@ -1274,19 +1274,19 @@
         <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.002373205917118335</v>
+        <v>-0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.01477646103600577</v>
+        <v>-0.01104918755697818</v>
       </c>
       <c r="CO2" t="n">
         <v>-0</v>
       </c>
       <c r="CP2" t="n">
-        <v>0</v>
+        <v>0.02074356515685865</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.01381074371673804</v>
+        <v>0.03582172844414858</v>
       </c>
       <c r="CR2" t="n">
         <v>-0</v>
@@ -1295,25 +1295,25 @@
         <v>0</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.01308099857112348</v>
+        <v>-0</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.007046342828025828</v>
+        <v>0.04603546316646197</v>
       </c>
       <c r="CX2" t="n">
         <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0</v>
+        <v>-0.03621017246313984</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.02311917450041284</v>
+        <v>0.009757611166591691</v>
       </c>
       <c r="DA2" t="n">
         <v>-0</v>
@@ -1325,52 +1325,52 @@
         <v>-0</v>
       </c>
       <c r="DD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.02650049793265984</v>
+        <v>-0</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.03789938148808267</v>
+        <v>0.02952187127600957</v>
       </c>
       <c r="DG2" t="n">
         <v>-0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>0.02516906389234852</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.01655603800736003</v>
+        <v>0.03783215140409813</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM2" t="n">
         <v>-0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.01523211513547074</v>
+        <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.0241616742585966</v>
+        <v>-0.01844302020456456</v>
       </c>
       <c r="DP2" t="n">
         <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0</v>
+        <v>0.03409103206182655</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.02175948141759325</v>
+        <v>-0.01622991875651391</v>
       </c>
       <c r="DS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT2" t="n">
         <v>0</v>
@@ -1382,22 +1382,22 @@
         <v>0</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.004318919954387183</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.001840163538919862</v>
+        <v>-0.0547282908726129</v>
       </c>
       <c r="DY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0</v>
+        <v>-0.01156697219937911</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.001142229002980451</v>
+        <v>-0.02323154868926323</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC2" t="n">
         <v>-0</v>
@@ -1409,19 +1409,19 @@
         <v>-0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.05331443542496793</v>
+        <v>-0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.001983236331310887</v>
+        <v>0.04188967657062639</v>
       </c>
       <c r="EH2" t="n">
         <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>0</v>
+        <v>0.07034029962704759</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.005103259022229016</v>
+        <v>-0.02720351628130804</v>
       </c>
       <c r="EK2" t="n">
         <v>-0</v>
@@ -1436,52 +1436,52 @@
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.003772697859894462</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.04654742240480834</v>
+        <v>0.04467283160219787</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>-0.0332712947545084</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.0006608350204503525</v>
+        <v>0.03374213308970007</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW2" t="n">
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.02037367269515363</v>
+        <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.004590071653747885</v>
+        <v>0.04336569382910841</v>
       </c>
       <c r="EZ2" t="n">
         <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0</v>
+        <v>-0.02930277627662451</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.02586669967352049</v>
+        <v>0.01670699430381313</v>
       </c>
       <c r="FC2" t="n">
         <v>0</v>
       </c>
       <c r="FD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE2" t="n">
         <v>0</v>
@@ -1490,79 +1490,79 @@
         <v>0</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.01588146890084096</v>
+        <v>-0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.01733355832079873</v>
+        <v>0.003066748497303185</v>
       </c>
       <c r="FI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0</v>
+        <v>-0.006813118420519349</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.01406789712261567</v>
+        <v>-0.006099503072460796</v>
       </c>
       <c r="FL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO2" t="n">
         <v>-0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.04954921436712118</v>
+        <v>-0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0.004502187591911159</v>
+        <v>-0.01240537822611858</v>
       </c>
       <c r="FR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0</v>
+        <v>-0.02042875914825069</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.001682252767127671</v>
+        <v>0.007039864533620131</v>
       </c>
       <c r="FU2" t="n">
         <v>0</v>
       </c>
       <c r="FV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX2" t="n">
         <v>-0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.06798150582246251</v>
+        <v>0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.02849557395852941</v>
+        <v>-0.03029568608595597</v>
       </c>
       <c r="GA2" t="n">
         <v>0</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0</v>
+        <v>0.03483274327951914</v>
       </c>
       <c r="GC2" t="n">
         <v>-0</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF2" t="n">
         <v>-0</v>
